--- a/Solution/EquipModify/data/Item/EquipModifyThing.xlsx
+++ b/Solution/EquipModify/data/Item/EquipModifyThing.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB9044A-59A8-4684-8456-0AB712EFBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049BB64-2032-4038-ADC7-379049236318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6504" yWindow="4512" windowWidth="23028" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="5136" windowWidth="23028" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="things" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1155">
   <si>
     <t>id</t>
   </si>
@@ -3705,6 +3705,10 @@
   </si>
   <si>
     <t>A gem used for enchanting equipment.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>machinebench</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4023,10 +4027,10 @@
   <dimension ref="A1:AZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AR4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AT12" sqref="AT12"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44140625" defaultRowHeight="16.2"/>
@@ -4489,6 +4493,9 @@
       </c>
       <c r="N4" s="3"/>
       <c r="U4" s="14"/>
+      <c r="V4" s="1" t="s">
+        <v>1154</v>
+      </c>
       <c r="W4" s="3" t="s">
         <v>1136</v>
       </c>
